--- a/АК/Компл_полная_9шк_плюсАРМ_плюсЗИП_вер3.xlsx
+++ b/АК/Компл_полная_9шк_плюсАРМ_плюсЗИП_вер3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="9636"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="УрЦА" sheetId="7" r:id="rId1"/>
@@ -1159,6 +1159,8 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1656,14 +1658,7 @@
     <cellStyle name="Обычный 6" xfId="8"/>
     <cellStyle name="Обычный 7" xfId="11"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1985,27 +1980,27 @@
   <dimension ref="A1:W150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L52" sqref="L52"/>
+      <pane ySplit="3" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" style="3" customWidth="1"/>
-    <col min="6" max="18" width="6.6640625" style="38" customWidth="1"/>
-    <col min="19" max="19" width="13.109375" style="38" customWidth="1"/>
-    <col min="20" max="20" width="6.6640625" style="38" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="3" customWidth="1"/>
+    <col min="6" max="18" width="6.7109375" style="38" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="38" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" style="38" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" style="6" customWidth="1"/>
     <col min="22" max="22" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" style="6" customWidth="1"/>
-    <col min="24" max="16384" width="9.109375" style="5"/>
+    <col min="24" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="116" t="s">
         <v>193</v>
       </c>
@@ -2032,7 +2027,7 @@
       <c r="V1" s="7"/>
       <c r="W1" s="7"/>
     </row>
-    <row r="3" spans="1:23" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -2101,7 +2096,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -2172,7 +2167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="37" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" s="37" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="45" t="s">
         <v>241</v>
@@ -2181,7 +2176,7 @@
       <c r="D5" s="45"/>
       <c r="E5" s="45"/>
     </row>
-    <row r="6" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="49">
         <v>1</v>
       </c>
@@ -2245,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A7" s="49">
         <v>2</v>
       </c>
@@ -2309,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="49">
         <v>3</v>
       </c>
@@ -2373,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="49">
         <v>4</v>
       </c>
@@ -2437,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="2" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" s="2" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="49">
         <v>5</v>
       </c>
@@ -2501,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="49">
         <v>6</v>
       </c>
@@ -2565,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A12" s="49">
         <v>7</v>
       </c>
@@ -2629,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="49">
         <v>8</v>
       </c>
@@ -2693,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="49">
         <v>9</v>
       </c>
@@ -2757,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="49"/>
       <c r="B15" s="60" t="s">
         <v>243</v>
@@ -2795,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A16" s="49">
         <v>10</v>
       </c>
@@ -2847,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A17" s="49">
         <v>11</v>
       </c>
@@ -2895,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A18" s="49">
         <v>12</v>
       </c>
@@ -2947,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="2" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" s="2" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="49">
         <v>13</v>
       </c>
@@ -2995,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A20" s="49">
         <v>14</v>
       </c>
@@ -3041,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="49">
         <v>15</v>
       </c>
@@ -3087,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A22" s="49">
         <v>16</v>
       </c>
@@ -3133,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A23" s="49">
         <v>17</v>
       </c>
@@ -3179,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A24" s="49">
         <v>18</v>
       </c>
@@ -3243,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A25" s="49">
         <v>19</v>
       </c>
@@ -3289,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="49">
         <v>20</v>
       </c>
@@ -3335,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="49">
         <v>21</v>
       </c>
@@ -3399,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="49">
         <v>22</v>
       </c>
@@ -3439,10 +3434,13 @@
       <c r="M28" s="51"/>
       <c r="N28" s="51"/>
       <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
+      <c r="P28" s="81">
+        <f>IF(ROUNDDOWN(SUM(F28:O28)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F28:O28)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q28" s="51">
         <f>SUM(F28:P28)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R28" s="51"/>
       <c r="S28" s="51"/>
@@ -3452,14 +3450,14 @@
       </c>
       <c r="V28" s="34">
         <f t="shared" si="2"/>
-        <v>47460</v>
+        <v>54240</v>
       </c>
       <c r="W28" s="34">
         <f>U28*R28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="49">
         <v>23</v>
       </c>
@@ -3519,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A30" s="49">
         <v>24</v>
       </c>
@@ -3559,10 +3557,13 @@
       <c r="M30" s="61"/>
       <c r="N30" s="61"/>
       <c r="O30" s="61"/>
-      <c r="P30" s="61"/>
+      <c r="P30" s="81">
+        <f>IF(ROUNDDOWN(SUM(F30:O30)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F30:O30)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q30" s="51">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R30" s="61"/>
       <c r="S30" s="61"/>
@@ -3572,14 +3573,14 @@
       </c>
       <c r="V30" s="34">
         <f t="shared" si="2"/>
-        <v>9093</v>
+        <v>10392</v>
       </c>
       <c r="W30" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="49">
         <v>25</v>
       </c>
@@ -3623,10 +3624,13 @@
         <v>1</v>
       </c>
       <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
+      <c r="P31" s="81">
+        <f>IF(ROUNDDOWN(SUM(F31:O31)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F31:O31)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q31" s="51">
         <f t="shared" ref="Q31" si="5">SUM(F31:P31)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R31" s="51"/>
       <c r="S31" s="51"/>
@@ -3636,14 +3640,14 @@
       </c>
       <c r="V31" s="34">
         <f t="shared" si="2"/>
-        <v>4095</v>
+        <v>4550</v>
       </c>
       <c r="W31" s="34">
         <f t="shared" ref="W31" si="6">U31*R31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="49"/>
       <c r="B32" s="46" t="s">
         <v>244</v>
@@ -3670,7 +3674,7 @@
       <c r="V32" s="34"/>
       <c r="W32" s="34"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>26</v>
       </c>
@@ -3694,7 +3698,7 @@
       <c r="M33" s="41"/>
       <c r="N33" s="41"/>
       <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
+      <c r="P33" s="81"/>
       <c r="Q33" s="40">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -3714,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>27</v>
       </c>
@@ -3758,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>28</v>
       </c>
@@ -3786,10 +3790,13 @@
       <c r="M35" s="61"/>
       <c r="N35" s="61"/>
       <c r="O35" s="61"/>
-      <c r="P35" s="61"/>
+      <c r="P35" s="81">
+        <f>IF(ROUNDDOWN(SUM(F35:O35)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F35:O35)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q35" s="51">
         <f t="shared" ref="Q35" si="7">SUM(F35:P35)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R35" s="61"/>
       <c r="S35" s="61"/>
@@ -3799,14 +3806,14 @@
       </c>
       <c r="V35" s="34">
         <f t="shared" si="2"/>
-        <v>10941</v>
+        <v>21882</v>
       </c>
       <c r="W35" s="34">
         <f t="shared" ref="W35" si="8">U35*R35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" s="67" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" s="67" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>29</v>
       </c>
@@ -3844,10 +3851,13 @@
       <c r="M36" s="51"/>
       <c r="N36" s="51"/>
       <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
+      <c r="P36" s="81">
+        <f>IF(ROUNDDOWN(SUM(F36:O36)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F36:O36)*0.1,0))</f>
+        <v>4</v>
+      </c>
       <c r="Q36" s="51">
         <f t="shared" ref="Q36:Q37" si="9">SUM(F36:P36)</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="R36" s="51"/>
       <c r="S36" s="43" t="s">
@@ -3859,14 +3869,14 @@
       </c>
       <c r="V36" s="34">
         <f t="shared" si="2"/>
-        <v>880000</v>
+        <v>960000</v>
       </c>
       <c r="W36" s="34">
         <f t="shared" ref="W36:W37" si="10">U36*R36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>30</v>
       </c>
@@ -3896,10 +3906,13 @@
         <v>1</v>
       </c>
       <c r="O37" s="51"/>
-      <c r="P37" s="51"/>
+      <c r="P37" s="81">
+        <f>IF(ROUNDDOWN(SUM(F37:O37)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F37:O37)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q37" s="51">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R37" s="51"/>
       <c r="S37" s="51"/>
@@ -3909,14 +3922,14 @@
       </c>
       <c r="V37" s="34">
         <f t="shared" si="2"/>
-        <v>72200</v>
+        <v>108300</v>
       </c>
       <c r="W37" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>31</v>
       </c>
@@ -3946,10 +3959,13 @@
         <v>10</v>
       </c>
       <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
+      <c r="P38" s="81">
+        <f>IF(ROUNDDOWN(SUM(F38:O38)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F38:O38)*0.1,0))</f>
+        <v>2</v>
+      </c>
       <c r="Q38" s="51">
         <f t="shared" ref="Q38" si="11">SUM(F38:P38)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R38" s="51"/>
       <c r="S38" s="51"/>
@@ -3959,14 +3975,14 @@
       </c>
       <c r="V38" s="34">
         <f t="shared" si="2"/>
-        <v>336000</v>
+        <v>369600</v>
       </c>
       <c r="W38" s="34">
         <f t="shared" ref="W38" si="12">U38*R38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
         <v>32</v>
       </c>
@@ -3994,10 +4010,13 @@
       <c r="M39" s="51"/>
       <c r="N39" s="51"/>
       <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
+      <c r="P39" s="81">
+        <f>IF(ROUNDDOWN(SUM(F39:O39)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F39:O39)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q39" s="51">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R39" s="51"/>
       <c r="S39" s="43" t="s">
@@ -4009,14 +4028,14 @@
       </c>
       <c r="V39" s="34">
         <f t="shared" si="2"/>
-        <v>7800</v>
+        <v>11700</v>
       </c>
       <c r="W39" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>33</v>
       </c>
@@ -4044,10 +4063,13 @@
       <c r="M40" s="51"/>
       <c r="N40" s="51"/>
       <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
+      <c r="P40" s="81">
+        <f>IF(ROUNDDOWN(SUM(F40:O40)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F40:O40)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q40" s="51">
         <f t="shared" ref="Q40" si="13">SUM(F40:P40)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R40" s="51"/>
       <c r="S40" s="51"/>
@@ -4057,14 +4079,14 @@
       </c>
       <c r="V40" s="34">
         <f t="shared" si="2"/>
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="W40" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
         <v>34</v>
       </c>
@@ -4092,10 +4114,13 @@
       <c r="M41" s="51"/>
       <c r="N41" s="51"/>
       <c r="O41" s="51"/>
-      <c r="P41" s="51"/>
+      <c r="P41" s="81">
+        <f>IF(ROUNDDOWN(SUM(F41:O41)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F41:O41)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q41" s="51">
         <f t="shared" ref="Q41" si="14">SUM(F41:P41)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R41" s="51"/>
       <c r="S41" s="51"/>
@@ -4105,14 +4130,14 @@
       </c>
       <c r="V41" s="34">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>1160</v>
       </c>
       <c r="W41" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>35</v>
       </c>
@@ -4140,10 +4165,13 @@
       <c r="M42" s="51"/>
       <c r="N42" s="51"/>
       <c r="O42" s="51"/>
-      <c r="P42" s="51"/>
+      <c r="P42" s="81">
+        <f>IF(ROUNDDOWN(SUM(F42:O42)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F42:O42)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q42" s="51">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R42" s="51"/>
       <c r="S42" s="51"/>
@@ -4153,14 +4181,14 @@
       </c>
       <c r="V42" s="34">
         <f t="shared" si="2"/>
-        <v>12540</v>
+        <v>25080</v>
       </c>
       <c r="W42" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>36</v>
       </c>
@@ -4188,10 +4216,13 @@
       <c r="M43" s="51"/>
       <c r="N43" s="51"/>
       <c r="O43" s="51"/>
-      <c r="P43" s="51"/>
+      <c r="P43" s="81">
+        <f>IF(ROUNDDOWN(SUM(F43:O43)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F43:O43)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q43" s="51">
         <f t="shared" ref="Q43:Q53" si="15">SUM(F43:P43)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R43" s="51"/>
       <c r="S43" s="51"/>
@@ -4201,14 +4232,14 @@
       </c>
       <c r="V43" s="34">
         <f t="shared" si="2"/>
-        <v>4788</v>
+        <v>5187</v>
       </c>
       <c r="W43" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
         <v>37</v>
       </c>
@@ -4252,10 +4283,13 @@
         <v>2</v>
       </c>
       <c r="O44" s="51"/>
-      <c r="P44" s="51"/>
+      <c r="P44" s="81">
+        <f>IF(ROUNDDOWN(SUM(F44:O44)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F44:O44)*0.1,0))</f>
+        <v>8</v>
+      </c>
       <c r="Q44" s="51">
         <f t="shared" si="15"/>
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="R44" s="51"/>
       <c r="S44" s="51"/>
@@ -4265,14 +4299,14 @@
       </c>
       <c r="V44" s="34">
         <f t="shared" si="2"/>
-        <v>23240</v>
+        <v>25480</v>
       </c>
       <c r="W44" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
         <v>38</v>
       </c>
@@ -4300,10 +4334,13 @@
       <c r="M45" s="51"/>
       <c r="N45" s="51"/>
       <c r="O45" s="51"/>
-      <c r="P45" s="51"/>
+      <c r="P45" s="81">
+        <f>IF(ROUNDDOWN(SUM(F45:O45)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F45:O45)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q45" s="51">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R45" s="51"/>
       <c r="S45" s="51"/>
@@ -4313,14 +4350,14 @@
       </c>
       <c r="V45" s="34">
         <f t="shared" si="2"/>
-        <v>6980</v>
+        <v>13960</v>
       </c>
       <c r="W45" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
         <v>39</v>
       </c>
@@ -4348,10 +4385,13 @@
       <c r="M46" s="51"/>
       <c r="N46" s="51"/>
       <c r="O46" s="51"/>
-      <c r="P46" s="51"/>
+      <c r="P46" s="81">
+        <f>IF(ROUNDDOWN(SUM(F46:O46)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F46:O46)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q46" s="51">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R46" s="51"/>
       <c r="S46" s="51"/>
@@ -4361,14 +4401,14 @@
       </c>
       <c r="V46" s="34">
         <f t="shared" si="2"/>
-        <v>15960</v>
+        <v>23940</v>
       </c>
       <c r="W46" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
         <v>40</v>
       </c>
@@ -4406,10 +4446,13 @@
       <c r="M47" s="51"/>
       <c r="N47" s="51"/>
       <c r="O47" s="51"/>
-      <c r="P47" s="51"/>
+      <c r="P47" s="81">
+        <f>IF(ROUNDDOWN(SUM(F47:O47)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F47:O47)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q47" s="51">
         <f t="shared" ref="Q47:Q52" si="16">SUM(F47:P47)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R47" s="51"/>
       <c r="S47" s="51"/>
@@ -4419,14 +4462,14 @@
       </c>
       <c r="V47" s="34">
         <f t="shared" si="2"/>
-        <v>6720</v>
+        <v>7280</v>
       </c>
       <c r="W47" s="34">
         <f t="shared" ref="W47:W52" si="17">U47*R47</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
         <v>41</v>
       </c>
@@ -4454,10 +4497,13 @@
       <c r="M48" s="51"/>
       <c r="N48" s="51"/>
       <c r="O48" s="51"/>
-      <c r="P48" s="51"/>
+      <c r="P48" s="81">
+        <f>IF(ROUNDDOWN(SUM(F48:O48)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F48:O48)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q48" s="51">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R48" s="51"/>
       <c r="S48" s="51"/>
@@ -4467,14 +4513,14 @@
       </c>
       <c r="V48" s="34">
         <f t="shared" si="2"/>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="W48" s="34">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:23" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>42</v>
       </c>
@@ -4504,10 +4550,13 @@
         <v>10</v>
       </c>
       <c r="O49" s="51"/>
-      <c r="P49" s="51"/>
+      <c r="P49" s="81">
+        <f>IF(ROUNDDOWN(SUM(F49:O49)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F49:O49)*0.1,0))</f>
+        <v>2</v>
+      </c>
       <c r="Q49" s="51">
         <f t="shared" si="16"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R49" s="51"/>
       <c r="S49" s="51"/>
@@ -4517,14 +4566,14 @@
       </c>
       <c r="V49" s="34">
         <f t="shared" si="2"/>
-        <v>78000</v>
+        <v>85800</v>
       </c>
       <c r="W49" s="34">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>43</v>
       </c>
@@ -4552,10 +4601,13 @@
       <c r="M50" s="51"/>
       <c r="N50" s="51"/>
       <c r="O50" s="51"/>
-      <c r="P50" s="51"/>
+      <c r="P50" s="81">
+        <f>IF(ROUNDDOWN(SUM(F50:O50)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F50:O50)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q50" s="51">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R50" s="51"/>
       <c r="S50" s="43" t="s">
@@ -4567,14 +4619,14 @@
       </c>
       <c r="V50" s="34">
         <f t="shared" si="2"/>
-        <v>14140</v>
+        <v>21210</v>
       </c>
       <c r="W50" s="34">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>44</v>
       </c>
@@ -4602,10 +4654,13 @@
       <c r="M51" s="51"/>
       <c r="N51" s="51"/>
       <c r="O51" s="51"/>
-      <c r="P51" s="51"/>
+      <c r="P51" s="81">
+        <f>IF(ROUNDDOWN(SUM(F51:O51)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F51:O51)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q51" s="51">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R51" s="51"/>
       <c r="S51" s="51"/>
@@ -4615,14 +4670,14 @@
       </c>
       <c r="V51" s="34">
         <f t="shared" si="2"/>
-        <v>17520</v>
+        <v>21900</v>
       </c>
       <c r="W51" s="34">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>45</v>
       </c>
@@ -4650,10 +4705,13 @@
       <c r="M52" s="51"/>
       <c r="N52" s="51"/>
       <c r="O52" s="51"/>
-      <c r="P52" s="51"/>
+      <c r="P52" s="81">
+        <f>IF(ROUNDDOWN(SUM(F52:O52)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F52:O52)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q52" s="51">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R52" s="51"/>
       <c r="S52" s="51"/>
@@ -4663,14 +4721,14 @@
       </c>
       <c r="V52" s="34">
         <f t="shared" si="2"/>
-        <v>3300</v>
+        <v>4950</v>
       </c>
       <c r="W52" s="34">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>46</v>
       </c>
@@ -4698,10 +4756,13 @@
       <c r="M53" s="51"/>
       <c r="N53" s="51"/>
       <c r="O53" s="51"/>
-      <c r="P53" s="51"/>
+      <c r="P53" s="81">
+        <f>IF(ROUNDDOWN(SUM(F53:O53)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F53:O53)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q53" s="51">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R53" s="51"/>
       <c r="S53" s="43" t="s">
@@ -4713,14 +4774,14 @@
       </c>
       <c r="V53" s="34">
         <f t="shared" si="2"/>
-        <v>980</v>
+        <v>1960</v>
       </c>
       <c r="W53" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>47</v>
       </c>
@@ -4748,10 +4809,13 @@
       <c r="M54" s="51"/>
       <c r="N54" s="51"/>
       <c r="O54" s="51"/>
-      <c r="P54" s="51"/>
+      <c r="P54" s="81">
+        <f>IF(ROUNDDOWN(SUM(F54:O54)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F54:O54)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q54" s="51">
         <f t="shared" ref="Q54:Q65" si="18">SUM(F54:P54)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R54" s="51"/>
       <c r="S54" s="51"/>
@@ -4761,14 +4825,14 @@
       </c>
       <c r="V54" s="34">
         <f t="shared" si="2"/>
-        <v>7560</v>
+        <v>9450</v>
       </c>
       <c r="W54" s="34">
         <f t="shared" ref="W54:W65" si="19">U54*R54</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13">
         <v>48</v>
       </c>
@@ -4796,10 +4860,13 @@
       <c r="M55" s="51"/>
       <c r="N55" s="51"/>
       <c r="O55" s="51"/>
-      <c r="P55" s="51"/>
+      <c r="P55" s="81">
+        <f>IF(ROUNDDOWN(SUM(F55:O55)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F55:O55)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q55" s="51">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R55" s="51"/>
       <c r="S55" s="51"/>
@@ -4809,14 +4876,14 @@
       </c>
       <c r="V55" s="34">
         <f t="shared" si="2"/>
-        <v>2920</v>
+        <v>4380</v>
       </c>
       <c r="W55" s="34">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13">
         <v>49</v>
       </c>
@@ -4854,10 +4921,13 @@
       <c r="M56" s="61"/>
       <c r="N56" s="61"/>
       <c r="O56" s="61"/>
-      <c r="P56" s="61"/>
+      <c r="P56" s="81">
+        <f>IF(ROUNDDOWN(SUM(F56:O56)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F56:O56)*0.1,0))</f>
+        <v>2</v>
+      </c>
       <c r="Q56" s="51">
         <f>SUM(F56:P56)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R56" s="61"/>
       <c r="S56" s="61"/>
@@ -4867,14 +4937,14 @@
       </c>
       <c r="V56" s="34">
         <f t="shared" si="2"/>
-        <v>40800</v>
+        <v>44200</v>
       </c>
       <c r="W56" s="34">
         <f>U56*R56</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13">
         <v>50</v>
       </c>
@@ -4902,10 +4972,13 @@
       <c r="M57" s="61"/>
       <c r="N57" s="61"/>
       <c r="O57" s="61"/>
-      <c r="P57" s="61"/>
+      <c r="P57" s="81">
+        <f>IF(ROUNDDOWN(SUM(F57:O57)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F57:O57)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q57" s="51">
         <f>SUM(F57:P57)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R57" s="61"/>
       <c r="S57" s="43" t="s">
@@ -4917,14 +4990,14 @@
       </c>
       <c r="V57" s="34">
         <f t="shared" si="2"/>
-        <v>1980</v>
+        <v>2970</v>
       </c>
       <c r="W57" s="34">
         <f>U57*R57</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:23" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A58" s="13">
         <v>51</v>
       </c>
@@ -4952,10 +5025,13 @@
       <c r="M58" s="51"/>
       <c r="N58" s="51"/>
       <c r="O58" s="51"/>
-      <c r="P58" s="51"/>
+      <c r="P58" s="81">
+        <f>IF(ROUNDDOWN(SUM(F58:O58)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F58:O58)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q58" s="51">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R58" s="51"/>
       <c r="S58" s="43" t="s">
@@ -4967,14 +5043,14 @@
       </c>
       <c r="V58" s="34">
         <f t="shared" si="2"/>
-        <v>11960</v>
+        <v>17940</v>
       </c>
       <c r="W58" s="34">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13">
         <v>52</v>
       </c>
@@ -5000,10 +5076,13 @@
       <c r="M59" s="51"/>
       <c r="N59" s="51"/>
       <c r="O59" s="51"/>
-      <c r="P59" s="51"/>
+      <c r="P59" s="81">
+        <f>IF(ROUNDDOWN(SUM(F59:O59)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F59:O59)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q59" s="51">
         <f>SUM(F59:P59)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R59" s="51"/>
       <c r="S59" s="51"/>
@@ -5013,14 +5092,14 @@
       </c>
       <c r="V59" s="34">
         <f t="shared" si="2"/>
-        <v>9960</v>
+        <v>14940</v>
       </c>
       <c r="W59" s="34">
         <f>U59*R59</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13">
         <v>53</v>
       </c>
@@ -5046,10 +5125,13 @@
       <c r="M60" s="51"/>
       <c r="N60" s="51"/>
       <c r="O60" s="51"/>
-      <c r="P60" s="51"/>
+      <c r="P60" s="81">
+        <f>IF(ROUNDDOWN(SUM(F60:O60)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F60:O60)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q60" s="51">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R60" s="51"/>
       <c r="S60" s="51"/>
@@ -5059,14 +5141,14 @@
       </c>
       <c r="V60" s="34">
         <f t="shared" si="2"/>
-        <v>4980</v>
+        <v>9960</v>
       </c>
       <c r="W60" s="34">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>54</v>
       </c>
@@ -5106,10 +5188,13 @@
       <c r="M61" s="51"/>
       <c r="N61" s="51"/>
       <c r="O61" s="51"/>
-      <c r="P61" s="51"/>
+      <c r="P61" s="81">
+        <f>IF(ROUNDDOWN(SUM(F61:O61)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F61:O61)*0.1,0))</f>
+        <v>13</v>
+      </c>
       <c r="Q61" s="51">
         <f t="shared" si="18"/>
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="R61" s="51"/>
       <c r="S61" s="51"/>
@@ -5119,14 +5204,14 @@
       </c>
       <c r="V61" s="34">
         <f t="shared" si="2"/>
-        <v>83720</v>
+        <v>92092</v>
       </c>
       <c r="W61" s="34">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:23" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
         <v>55</v>
       </c>
@@ -5166,10 +5251,13 @@
       <c r="M62" s="51"/>
       <c r="N62" s="51"/>
       <c r="O62" s="51"/>
-      <c r="P62" s="51"/>
+      <c r="P62" s="81">
+        <f>IF(ROUNDDOWN(SUM(F62:O62)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F62:O62)*0.1,0))</f>
+        <v>13</v>
+      </c>
       <c r="Q62" s="51">
         <f t="shared" si="18"/>
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="R62" s="51"/>
       <c r="S62" s="51"/>
@@ -5179,14 +5267,14 @@
       </c>
       <c r="V62" s="34">
         <f t="shared" si="2"/>
-        <v>41860</v>
+        <v>46046</v>
       </c>
       <c r="W62" s="34">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
         <v>56</v>
       </c>
@@ -5226,10 +5314,13 @@
       <c r="M63" s="51"/>
       <c r="N63" s="51"/>
       <c r="O63" s="51"/>
-      <c r="P63" s="51"/>
+      <c r="P63" s="81">
+        <f>IF(ROUNDDOWN(SUM(F63:O63)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F63:O63)*0.1,0))</f>
+        <v>19</v>
+      </c>
       <c r="Q63" s="51">
         <f t="shared" si="18"/>
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="R63" s="51"/>
       <c r="S63" s="51"/>
@@ -5239,14 +5330,14 @@
       </c>
       <c r="V63" s="34">
         <f t="shared" si="2"/>
-        <v>118404</v>
+        <v>129766</v>
       </c>
       <c r="W63" s="34">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <v>57</v>
       </c>
@@ -5286,10 +5377,13 @@
       <c r="M64" s="51"/>
       <c r="N64" s="51"/>
       <c r="O64" s="51"/>
-      <c r="P64" s="51"/>
+      <c r="P64" s="81">
+        <f>IF(ROUNDDOWN(SUM(F64:O64)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F64:O64)*0.1,0))</f>
+        <v>19</v>
+      </c>
       <c r="Q64" s="51">
         <f t="shared" si="18"/>
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="R64" s="51"/>
       <c r="S64" s="51"/>
@@ -5299,14 +5393,14 @@
       </c>
       <c r="V64" s="34">
         <f t="shared" si="2"/>
-        <v>59004</v>
+        <v>64666</v>
       </c>
       <c r="W64" s="34">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>58</v>
       </c>
@@ -5346,10 +5440,13 @@
       <c r="M65" s="51"/>
       <c r="N65" s="51"/>
       <c r="O65" s="51"/>
-      <c r="P65" s="51"/>
+      <c r="P65" s="81">
+        <f>IF(ROUNDDOWN(SUM(F65:O65)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F65:O65)*0.1,0))</f>
+        <v>32</v>
+      </c>
       <c r="Q65" s="51">
         <f t="shared" si="18"/>
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="R65" s="51"/>
       <c r="S65" s="51"/>
@@ -5359,14 +5456,14 @@
       </c>
       <c r="V65" s="34">
         <f t="shared" si="2"/>
-        <v>117752</v>
+        <v>129240</v>
       </c>
       <c r="W65" s="34">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>59</v>
       </c>
@@ -5410,10 +5507,13 @@
         <v>1</v>
       </c>
       <c r="O66" s="51"/>
-      <c r="P66" s="51"/>
+      <c r="P66" s="81">
+        <f>IF(ROUNDDOWN(SUM(F66:O66)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F66:O66)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q66" s="51">
         <f t="shared" ref="Q66" si="20">SUM(F66:P66)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R66" s="51"/>
       <c r="S66" s="51"/>
@@ -5423,14 +5523,14 @@
       </c>
       <c r="V66" s="34">
         <f t="shared" si="2"/>
-        <v>2640</v>
+        <v>2880</v>
       </c>
       <c r="W66" s="34">
         <f t="shared" ref="W66" si="21">U66*R66</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>60</v>
       </c>
@@ -5474,10 +5574,13 @@
         <v>1</v>
       </c>
       <c r="O67" s="51"/>
-      <c r="P67" s="51"/>
+      <c r="P67" s="81">
+        <f>IF(ROUNDDOWN(SUM(F67:O67)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F67:O67)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q67" s="51">
         <f t="shared" ref="Q67:Q73" si="22">SUM(F67:P67)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R67" s="51"/>
       <c r="S67" s="51"/>
@@ -5487,14 +5590,14 @@
       </c>
       <c r="V67" s="34">
         <f t="shared" si="2"/>
-        <v>2160</v>
+        <v>2280</v>
       </c>
       <c r="W67" s="34">
         <f t="shared" ref="W67:W73" si="23">U67*R67</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:23" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>61</v>
       </c>
@@ -5526,10 +5629,13 @@
         <v>10</v>
       </c>
       <c r="O68" s="51"/>
-      <c r="P68" s="51"/>
+      <c r="P68" s="81">
+        <f>IF(ROUNDDOWN(SUM(F68:O68)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F68:O68)*0.1,0))</f>
+        <v>2</v>
+      </c>
       <c r="Q68" s="51">
         <f t="shared" ref="Q68" si="24">SUM(F68:P68)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R68" s="51"/>
       <c r="S68" s="51"/>
@@ -5539,14 +5645,14 @@
       </c>
       <c r="V68" s="34">
         <f t="shared" si="2"/>
-        <v>6210</v>
+        <v>6750</v>
       </c>
       <c r="W68" s="34">
         <f t="shared" ref="W68" si="25">U68*R68</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>62</v>
       </c>
@@ -5574,10 +5680,13 @@
         <v>10</v>
       </c>
       <c r="O69" s="51"/>
-      <c r="P69" s="51"/>
+      <c r="P69" s="81">
+        <f>IF(ROUNDDOWN(SUM(F69:O69)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F69:O69)*0.1,0))</f>
+        <v>2</v>
+      </c>
       <c r="Q69" s="51">
         <f t="shared" ref="Q69" si="26">SUM(F69:P69)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R69" s="51"/>
       <c r="S69" s="51"/>
@@ -5587,14 +5696,14 @@
       </c>
       <c r="V69" s="34">
         <f t="shared" ref="V69" si="27">U69*Q69</f>
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="W69" s="34">
         <f t="shared" ref="W69" si="28">U69*R69</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>63</v>
       </c>
@@ -5658,7 +5767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
         <v>64</v>
       </c>
@@ -5722,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
         <v>65</v>
       </c>
@@ -5786,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
         <v>66</v>
       </c>
@@ -5834,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
         <v>67</v>
       </c>
@@ -5884,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13">
         <v>68</v>
       </c>
@@ -5932,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="13">
         <v>69</v>
       </c>
@@ -5976,10 +6085,13 @@
         <v>11</v>
       </c>
       <c r="O76" s="51"/>
-      <c r="P76" s="51"/>
+      <c r="P76" s="81">
+        <f>IF(ROUNDDOWN(SUM(F76:O76)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F76:O76)*0.1,0))</f>
+        <v>3</v>
+      </c>
       <c r="Q76" s="51">
         <f t="shared" ref="Q76:Q81" si="34">SUM(F76:P76)</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R76" s="51"/>
       <c r="S76" s="51"/>
@@ -5989,14 +6101,14 @@
       </c>
       <c r="V76" s="34">
         <f t="shared" si="29"/>
-        <v>26562</v>
+        <v>28659</v>
       </c>
       <c r="W76" s="34">
         <f t="shared" ref="W76:W81" si="35">U76*R76</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="13">
         <v>70</v>
       </c>
@@ -6024,10 +6136,13 @@
       <c r="M77" s="51"/>
       <c r="N77" s="51"/>
       <c r="O77" s="51"/>
-      <c r="P77" s="51"/>
+      <c r="P77" s="81">
+        <f>IF(ROUNDDOWN(SUM(F77:O77)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F77:O77)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q77" s="51">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R77" s="51"/>
       <c r="S77" s="51"/>
@@ -6037,14 +6152,14 @@
       </c>
       <c r="V77" s="34">
         <f t="shared" si="29"/>
-        <v>699</v>
+        <v>1398</v>
       </c>
       <c r="W77" s="34">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="13">
         <v>71</v>
       </c>
@@ -6072,10 +6187,13 @@
       <c r="M78" s="61"/>
       <c r="N78" s="61"/>
       <c r="O78" s="61"/>
-      <c r="P78" s="61"/>
+      <c r="P78" s="81">
+        <f>IF(ROUNDDOWN(SUM(F78:O78)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F78:O78)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q78" s="51">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R78" s="61"/>
       <c r="S78" s="61"/>
@@ -6085,14 +6203,14 @@
       </c>
       <c r="V78" s="34">
         <f t="shared" si="29"/>
-        <v>36920</v>
+        <v>55380</v>
       </c>
       <c r="W78" s="34">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:23" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A79" s="13">
         <v>72</v>
       </c>
@@ -6120,10 +6238,13 @@
       <c r="M79" s="51"/>
       <c r="N79" s="51"/>
       <c r="O79" s="51"/>
-      <c r="P79" s="51"/>
+      <c r="P79" s="81">
+        <f>IF(ROUNDDOWN(SUM(F79:O79)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F79:O79)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q79" s="51">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R79" s="51"/>
       <c r="S79" s="51"/>
@@ -6133,14 +6254,14 @@
       </c>
       <c r="V79" s="34">
         <f t="shared" si="29"/>
-        <v>17900</v>
+        <v>26850</v>
       </c>
       <c r="W79" s="34">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="13">
         <v>73</v>
       </c>
@@ -6170,10 +6291,13 @@
       <c r="M80" s="51"/>
       <c r="N80" s="51"/>
       <c r="O80" s="51"/>
-      <c r="P80" s="51"/>
+      <c r="P80" s="81">
+        <f>IF(ROUNDDOWN(SUM(F80:O80)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F80:O80)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q80" s="51">
         <f t="shared" si="34"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R80" s="51"/>
       <c r="S80" s="51"/>
@@ -6183,14 +6307,14 @@
       </c>
       <c r="V80" s="34">
         <f t="shared" si="29"/>
-        <v>8868</v>
+        <v>10346</v>
       </c>
       <c r="W80" s="34">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="13">
         <v>74</v>
       </c>
@@ -6218,10 +6342,13 @@
       <c r="M81" s="51"/>
       <c r="N81" s="51"/>
       <c r="O81" s="51"/>
-      <c r="P81" s="51"/>
+      <c r="P81" s="81">
+        <f>IF(ROUNDDOWN(SUM(F81:O81)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F81:O81)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q81" s="51">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R81" s="51"/>
       <c r="S81" s="51"/>
@@ -6231,14 +6358,14 @@
       </c>
       <c r="V81" s="34">
         <f t="shared" si="29"/>
-        <v>9960</v>
+        <v>14940</v>
       </c>
       <c r="W81" s="34">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="13">
         <v>75</v>
       </c>
@@ -6276,10 +6403,13 @@
       <c r="M82" s="51"/>
       <c r="N82" s="51"/>
       <c r="O82" s="51"/>
-      <c r="P82" s="51"/>
+      <c r="P82" s="81">
+        <f>IF(ROUNDDOWN(SUM(F82:O82)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F82:O82)*0.1,0))</f>
+        <v>2</v>
+      </c>
       <c r="Q82" s="51">
         <f t="shared" ref="Q82" si="36">SUM(F82:P82)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R82" s="51"/>
       <c r="S82" s="51"/>
@@ -6289,14 +6419,14 @@
       </c>
       <c r="V82" s="34">
         <f t="shared" ref="V82" si="37">U82*Q82</f>
-        <v>112875</v>
+        <v>123625</v>
       </c>
       <c r="W82" s="34">
         <f t="shared" ref="W82" si="38">U82*R82</f>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="13">
         <v>76</v>
       </c>
@@ -6334,10 +6464,13 @@
       <c r="M83" s="51"/>
       <c r="N83" s="51"/>
       <c r="O83" s="51"/>
-      <c r="P83" s="51"/>
+      <c r="P83" s="81">
+        <f>IF(ROUNDDOWN(SUM(F83:O83)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F83:O83)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q83" s="51">
         <f t="shared" ref="Q83" si="39">SUM(F83:P83)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R83" s="51"/>
       <c r="S83" s="51"/>
@@ -6347,14 +6480,14 @@
       </c>
       <c r="V83" s="34">
         <f t="shared" si="29"/>
-        <v>11880</v>
+        <v>13860</v>
       </c>
       <c r="W83" s="34">
         <f t="shared" ref="W83" si="40">U83*R83</f>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="13">
         <v>77</v>
       </c>
@@ -6382,10 +6515,13 @@
       <c r="M84" s="51"/>
       <c r="N84" s="51"/>
       <c r="O84" s="51"/>
-      <c r="P84" s="51"/>
+      <c r="P84" s="81">
+        <f>IF(ROUNDDOWN(SUM(F84:O84)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F84:O84)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q84" s="51">
         <f>SUM(F84:P84)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R84" s="51"/>
       <c r="S84" s="51"/>
@@ -6395,14 +6531,14 @@
       </c>
       <c r="V84" s="34">
         <f t="shared" si="29"/>
-        <v>1340</v>
+        <v>2680</v>
       </c>
       <c r="W84" s="34">
         <f>U84*R84</f>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="13">
         <v>78</v>
       </c>
@@ -6430,10 +6566,13 @@
       <c r="M85" s="51"/>
       <c r="N85" s="51"/>
       <c r="O85" s="51"/>
-      <c r="P85" s="51"/>
+      <c r="P85" s="81">
+        <f>IF(ROUNDDOWN(SUM(F85:O85)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F85:O85)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q85" s="51">
         <f>SUM(F85:P85)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R85" s="51"/>
       <c r="S85" s="51"/>
@@ -6443,14 +6582,14 @@
       </c>
       <c r="V85" s="34">
         <f t="shared" si="29"/>
-        <v>15984</v>
+        <v>17982</v>
       </c>
       <c r="W85" s="34">
         <f>U85*R85</f>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:23" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A86" s="13">
         <v>79</v>
       </c>
@@ -6478,10 +6617,13 @@
       <c r="M86" s="51"/>
       <c r="N86" s="51"/>
       <c r="O86" s="51"/>
-      <c r="P86" s="51"/>
+      <c r="P86" s="81">
+        <f>IF(ROUNDDOWN(SUM(F86:O86)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F86:O86)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q86" s="51">
         <f>SUM(F86:P86)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R86" s="51"/>
       <c r="S86" s="51"/>
@@ -6491,14 +6633,14 @@
       </c>
       <c r="V86" s="34">
         <f t="shared" si="29"/>
-        <v>891</v>
+        <v>1782</v>
       </c>
       <c r="W86" s="34">
         <f>U86*R86</f>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" s="15"/>
       <c r="B87" s="52" t="s">
         <v>238</v>
@@ -6525,7 +6667,7 @@
       <c r="V87" s="53"/>
       <c r="W87" s="53"/>
     </row>
-    <row r="88" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="49">
         <v>80</v>
       </c>
@@ -6583,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="49">
         <v>81</v>
       </c>
@@ -6647,7 +6789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="49">
         <v>82</v>
       </c>
@@ -6705,7 +6847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="49">
         <v>83</v>
       </c>
@@ -6755,7 +6897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="49">
         <v>84</v>
       </c>
@@ -6813,7 +6955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="49">
         <v>85</v>
       </c>
@@ -6877,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="49">
         <v>86</v>
       </c>
@@ -6937,7 +7079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="49">
         <v>87</v>
       </c>
@@ -7001,7 +7143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="49">
         <v>88</v>
       </c>
@@ -7065,7 +7207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="49">
         <v>89</v>
       </c>
@@ -7129,7 +7271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="49">
         <v>90</v>
       </c>
@@ -7177,7 +7319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="49">
         <v>91</v>
       </c>
@@ -7223,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="49">
         <v>92</v>
       </c>
@@ -7269,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="49">
         <v>93</v>
       </c>
@@ -7331,7 +7473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="49">
         <v>94</v>
       </c>
@@ -7387,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="49">
         <v>95</v>
       </c>
@@ -7449,7 +7591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="49">
         <v>96</v>
       </c>
@@ -7507,7 +7649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="49">
         <v>97</v>
       </c>
@@ -7555,7 +7697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="49">
         <v>98</v>
       </c>
@@ -7601,7 +7743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="49">
         <v>99</v>
       </c>
@@ -7647,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="49">
         <v>100</v>
       </c>
@@ -7709,7 +7851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="49">
         <v>101</v>
       </c>
@@ -7767,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="49">
         <v>102</v>
       </c>
@@ -7825,7 +7967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="49">
         <v>103</v>
       </c>
@@ -7883,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="49">
         <v>104</v>
       </c>
@@ -7943,7 +8085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="49">
         <v>105</v>
       </c>
@@ -7993,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="49">
         <v>106</v>
       </c>
@@ -8043,7 +8185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="49">
         <v>107</v>
       </c>
@@ -8093,7 +8235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="49">
         <v>108</v>
       </c>
@@ -8143,7 +8285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="49">
         <v>109</v>
       </c>
@@ -8192,7 +8334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="49">
         <v>110</v>
       </c>
@@ -8241,7 +8383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="49">
         <v>111</v>
       </c>
@@ -8289,12 +8431,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B120" s="113" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="121" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="13">
         <v>112</v>
       </c>
@@ -8342,7 +8484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="13">
         <v>113</v>
       </c>
@@ -8370,10 +8512,13 @@
       <c r="M122" s="51"/>
       <c r="N122" s="51"/>
       <c r="O122" s="51"/>
-      <c r="P122" s="51"/>
+      <c r="P122" s="81">
+        <f>IF(ROUNDDOWN(SUM(F122:O122)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F122:O122)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q122" s="51">
         <f t="shared" si="58"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R122" s="51"/>
       <c r="S122" s="51"/>
@@ -8383,14 +8528,14 @@
       </c>
       <c r="V122" s="34">
         <f t="shared" si="59"/>
-        <v>4434</v>
+        <v>5912</v>
       </c>
       <c r="W122" s="34">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="13">
         <v>114</v>
       </c>
@@ -8418,10 +8563,13 @@
       <c r="M123" s="51"/>
       <c r="N123" s="51"/>
       <c r="O123" s="51"/>
-      <c r="P123" s="51"/>
+      <c r="P123" s="81">
+        <f>IF(ROUNDDOWN(SUM(F123:O123)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F123:O123)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q123" s="51">
         <f t="shared" si="58"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R123" s="51"/>
       <c r="S123" s="51"/>
@@ -8431,14 +8579,14 @@
       </c>
       <c r="V123" s="34">
         <f t="shared" si="59"/>
-        <v>4434</v>
+        <v>5912</v>
       </c>
       <c r="W123" s="34">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="13">
         <v>115</v>
       </c>
@@ -8466,10 +8614,13 @@
       <c r="M124" s="51"/>
       <c r="N124" s="51"/>
       <c r="O124" s="51"/>
-      <c r="P124" s="51"/>
+      <c r="P124" s="81">
+        <f>IF(ROUNDDOWN(SUM(F124:O124)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F124:O124)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q124" s="51">
         <f t="shared" si="58"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R124" s="51"/>
       <c r="S124" s="51"/>
@@ -8479,14 +8630,14 @@
       </c>
       <c r="V124" s="34">
         <f t="shared" si="59"/>
-        <v>4194</v>
+        <v>4893</v>
       </c>
       <c r="W124" s="34">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="13">
         <v>116</v>
       </c>
@@ -8514,10 +8665,13 @@
       <c r="M125" s="51"/>
       <c r="N125" s="51"/>
       <c r="O125" s="51"/>
-      <c r="P125" s="51"/>
+      <c r="P125" s="81">
+        <f>IF(ROUNDDOWN(SUM(F125:O125)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F125:O125)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q125" s="51">
         <f t="shared" ref="Q125" si="61">SUM(F125:P125)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R125" s="51"/>
       <c r="S125" s="51"/>
@@ -8527,14 +8681,14 @@
       </c>
       <c r="V125" s="34">
         <f t="shared" si="59"/>
-        <v>2097</v>
+        <v>2796</v>
       </c>
       <c r="W125" s="34">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:23" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="33"/>
       <c r="B126" s="114" t="s">
         <v>322</v>
@@ -8544,7 +8698,7 @@
       <c r="E126" s="33"/>
       <c r="F126" s="44"/>
     </row>
-    <row r="127" spans="1:23" s="83" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="49">
         <v>117</v>
       </c>
@@ -8572,10 +8726,13 @@
       <c r="M127" s="81"/>
       <c r="N127" s="81"/>
       <c r="O127" s="81"/>
-      <c r="P127" s="81"/>
+      <c r="P127" s="81">
+        <f>IF(ROUNDDOWN(SUM(F127:O127)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(F127:O127)*0.1,0))</f>
+        <v>1</v>
+      </c>
       <c r="Q127" s="81">
         <f>SUM(F127:P127)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R127" s="81"/>
       <c r="S127" s="81"/>
@@ -8585,14 +8742,14 @@
       </c>
       <c r="V127" s="82">
         <f t="shared" ref="V127:V148" si="62">U127*Q127</f>
-        <v>9960</v>
+        <v>14940</v>
       </c>
       <c r="W127" s="82">
         <f>U127*R127</f>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A128" s="49">
         <v>118</v>
       </c>
@@ -8628,10 +8785,10 @@
       <c r="R128" s="81"/>
       <c r="S128" s="81"/>
       <c r="T128" s="54"/>
-      <c r="U128" s="55">
+      <c r="U128" s="82">
         <v>84630</v>
       </c>
-      <c r="V128" s="55">
+      <c r="V128" s="82">
         <f t="shared" si="62"/>
         <v>169260</v>
       </c>
@@ -8640,7 +8797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:23" s="50" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" s="50" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="49">
         <v>119</v>
       </c>
@@ -8688,7 +8845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A130" s="49">
         <v>120</v>
       </c>
@@ -8727,12 +8884,12 @@
       <c r="N130" s="81"/>
       <c r="O130" s="81"/>
       <c r="P130" s="81">
-        <f t="shared" ref="P130:P136" si="66">INT(SUM(G130:O130)/10)+1</f>
-        <v>2</v>
+        <f>IF(ROUNDDOWN(SUM(G130:O130)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(G130:O130)*0.1,0))</f>
+        <v>1</v>
       </c>
       <c r="Q130" s="81">
-        <f t="shared" ref="Q130:Q148" si="67">SUM(F130:P130)</f>
-        <v>15</v>
+        <f t="shared" ref="Q130:Q148" si="66">SUM(F130:P130)</f>
+        <v>14</v>
       </c>
       <c r="R130" s="81"/>
       <c r="S130" s="81"/>
@@ -8742,14 +8899,14 @@
       </c>
       <c r="V130" s="55">
         <f t="shared" si="62"/>
-        <v>1935000</v>
+        <v>1806000</v>
       </c>
       <c r="W130" s="55">
-        <f t="shared" ref="W130:W148" si="68">U130*R130</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="W130:W148" si="67">U130*R130</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A131" s="49">
         <v>121</v>
       </c>
@@ -8788,12 +8945,12 @@
       <c r="N131" s="81"/>
       <c r="O131" s="81"/>
       <c r="P131" s="81">
+        <f t="shared" ref="P131:P138" si="68">IF(ROUNDDOWN(SUM(G131:O131)*0.1,0)&lt;1,1,ROUNDDOWN(SUM(G131:O131)*0.1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="Q131" s="81">
         <f t="shared" si="66"/>
-        <v>2</v>
-      </c>
-      <c r="Q131" s="81">
-        <f t="shared" si="67"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R131" s="81"/>
       <c r="S131" s="81"/>
@@ -8803,14 +8960,14 @@
       </c>
       <c r="V131" s="55">
         <f t="shared" si="62"/>
-        <v>1710000</v>
+        <v>1620000</v>
       </c>
       <c r="W131" s="55">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:23" s="50" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" s="50" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="49">
         <v>122</v>
       </c>
@@ -8849,12 +9006,12 @@
       <c r="N132" s="81"/>
       <c r="O132" s="81"/>
       <c r="P132" s="81">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="Q132" s="81">
         <f t="shared" si="66"/>
-        <v>2</v>
-      </c>
-      <c r="Q132" s="81">
-        <f t="shared" si="67"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R132" s="81"/>
       <c r="S132" s="81"/>
@@ -8864,14 +9021,14 @@
       </c>
       <c r="V132" s="55">
         <f t="shared" si="62"/>
-        <v>1806000</v>
+        <v>1677000</v>
       </c>
       <c r="W132" s="55">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="49">
         <v>123</v>
       </c>
@@ -8910,11 +9067,11 @@
       <c r="N133" s="81"/>
       <c r="O133" s="81"/>
       <c r="P133" s="81">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="Q133" s="81">
         <f t="shared" si="66"/>
-        <v>1</v>
-      </c>
-      <c r="Q133" s="81">
-        <f t="shared" si="67"/>
         <v>7</v>
       </c>
       <c r="R133" s="81"/>
@@ -8928,11 +9085,11 @@
         <v>504000</v>
       </c>
       <c r="W133" s="55">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="49">
         <v>124</v>
       </c>
@@ -8971,11 +9128,11 @@
       <c r="N134" s="81"/>
       <c r="O134" s="81"/>
       <c r="P134" s="81">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="Q134" s="81">
         <f t="shared" si="66"/>
-        <v>1</v>
-      </c>
-      <c r="Q134" s="81">
-        <f t="shared" si="67"/>
         <v>7</v>
       </c>
       <c r="R134" s="81"/>
@@ -8989,11 +9146,11 @@
         <v>483000</v>
       </c>
       <c r="W134" s="55">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="49">
         <v>125</v>
       </c>
@@ -9032,12 +9189,12 @@
       <c r="N135" s="81"/>
       <c r="O135" s="81"/>
       <c r="P135" s="81">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="Q135" s="81">
         <f t="shared" si="66"/>
-        <v>2</v>
-      </c>
-      <c r="Q135" s="81">
-        <f t="shared" si="67"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R135" s="81"/>
       <c r="S135" s="81"/>
@@ -9047,14 +9204,14 @@
       </c>
       <c r="V135" s="55">
         <f t="shared" si="62"/>
-        <v>1218000</v>
+        <v>1131000</v>
       </c>
       <c r="W135" s="55">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:23" s="50" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" s="50" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="49">
         <v>126</v>
       </c>
@@ -9072,39 +9229,39 @@
       </c>
       <c r="F136" s="102"/>
       <c r="G136" s="103">
-        <f>SUM(G130:G135)</f>
-        <v>11</v>
+        <f>SUM(G130:G132,G135)</f>
+        <v>9</v>
       </c>
       <c r="H136" s="103">
-        <f t="shared" ref="H136:L136" si="69">SUM(H130:H135)</f>
-        <v>11</v>
-      </c>
-      <c r="I136" s="81">
+        <f t="shared" ref="H136:L136" si="69">SUM(H130:H132,H135)</f>
+        <v>9</v>
+      </c>
+      <c r="I136" s="103">
         <f t="shared" si="69"/>
-        <v>11</v>
-      </c>
-      <c r="J136" s="81">
+        <v>9</v>
+      </c>
+      <c r="J136" s="103">
         <f t="shared" si="69"/>
-        <v>11</v>
-      </c>
-      <c r="K136" s="81">
+        <v>9</v>
+      </c>
+      <c r="K136" s="103">
         <f t="shared" si="69"/>
-        <v>11</v>
-      </c>
-      <c r="L136" s="81">
+        <v>9</v>
+      </c>
+      <c r="L136" s="103">
         <f t="shared" si="69"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M136" s="81"/>
       <c r="N136" s="81"/>
       <c r="O136" s="81"/>
       <c r="P136" s="81">
+        <f t="shared" si="68"/>
+        <v>5</v>
+      </c>
+      <c r="Q136" s="81">
         <f t="shared" si="66"/>
-        <v>7</v>
-      </c>
-      <c r="Q136" s="81">
-        <f t="shared" si="67"/>
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="R136" s="81"/>
       <c r="S136" s="81"/>
@@ -9114,14 +9271,14 @@
       </c>
       <c r="V136" s="55">
         <f t="shared" si="62"/>
-        <v>1642500</v>
+        <v>1327500</v>
       </c>
       <c r="W136" s="55">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:23" s="50" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" s="50" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A137" s="49">
         <v>127</v>
       </c>
@@ -9150,10 +9307,11 @@
       <c r="N137" s="81"/>
       <c r="O137" s="81"/>
       <c r="P137" s="81">
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="Q137" s="81">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>3</v>
       </c>
       <c r="R137" s="81"/>
@@ -9171,7 +9329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="49">
         <v>128</v>
       </c>
@@ -9210,12 +9368,12 @@
       <c r="N138" s="81"/>
       <c r="O138" s="81"/>
       <c r="P138" s="81">
-        <f>INT(SUM(G138:O138)/10)+1</f>
-        <v>5</v>
+        <f t="shared" si="68"/>
+        <v>4</v>
       </c>
       <c r="Q138" s="81">
-        <f t="shared" si="67"/>
-        <v>47</v>
+        <f t="shared" si="66"/>
+        <v>46</v>
       </c>
       <c r="R138" s="81"/>
       <c r="S138" s="81"/>
@@ -9225,14 +9383,14 @@
       </c>
       <c r="V138" s="55">
         <f t="shared" si="62"/>
-        <v>282000</v>
+        <v>276000</v>
       </c>
       <c r="W138" s="55">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="49">
         <v>129</v>
       </c>
@@ -9272,7 +9430,7 @@
       <c r="O139" s="81"/>
       <c r="P139" s="81"/>
       <c r="Q139" s="81">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>6</v>
       </c>
       <c r="R139" s="81"/>
@@ -9286,11 +9444,11 @@
         <v>14400</v>
       </c>
       <c r="W139" s="55">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="49">
         <v>130</v>
       </c>
@@ -9338,7 +9496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:23" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A141" s="49">
         <v>131</v>
       </c>
@@ -9386,7 +9544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:23" s="50" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" s="50" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="49">
         <v>132</v>
       </c>
@@ -9434,7 +9592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:23" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A143" s="49">
         <v>133</v>
       </c>
@@ -9482,7 +9640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:23" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A144" s="49">
         <v>134</v>
       </c>
@@ -9530,7 +9688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="49">
         <v>135</v>
       </c>
@@ -9578,7 +9736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="49">
         <v>136</v>
       </c>
@@ -9626,7 +9784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="49">
         <v>137</v>
       </c>
@@ -9674,7 +9832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="49">
         <v>138</v>
       </c>
@@ -9704,7 +9862,7 @@
       </c>
       <c r="P148" s="81"/>
       <c r="Q148" s="81">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="R148" s="81"/>
@@ -9718,17 +9876,17 @@
         <v>0</v>
       </c>
       <c r="W148" s="55">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="U150" s="87" t="s">
         <v>139</v>
       </c>
       <c r="V150" s="53">
         <f>SUM(V6:V148)</f>
-        <v>17985496.859999999</v>
+        <v>17586547.859999999</v>
       </c>
       <c r="W150" s="53">
         <f>SUM(W6:W119)</f>
@@ -9739,13 +9897,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B118:D118">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>#REF!=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B117:D117">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="B117:D118">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
